--- a/测试文档/逆流器显示板软件自测报告—V1.0.xlsx
+++ b/测试文档/逆流器显示板软件自测报告—V1.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E9C48C-6BCA-4273-92F1-B3355FA8370E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8357CD15-1F64-44B6-83E0-FB09B10CA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表① 测试报告" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="385">
   <si>
     <t xml:space="preserve">                            </t>
   </si>
@@ -118,7 +118,7 @@
   </si>
   <si>
     <t>测试断码屏所有显示点，以及代码显示数字字符的正确性</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>屏幕所有数字从0-9依次显示</t>
@@ -126,7 +126,7 @@
   </si>
   <si>
     <t>测试4个按键硬件功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>点击的按键会点亮，并发出“嘀”的声音</t>
@@ -134,15 +134,15 @@
   </si>
   <si>
     <t>开机</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>点击一下“电源键“系统启动，并在3秒后自动运行（默认模式）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>开机界面</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>1.逆流器上电；</t>
@@ -166,11 +166,11 @@
   </si>
   <si>
     <t>暂停</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>运行过程中点击“电源键”进入暂停，电机停止运转</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>1.任意运行状态下点击“电源键”</t>
@@ -238,159 +238,159 @@
   </si>
   <si>
     <t>20-40%</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>40-60%</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>60-80%</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>80-100%</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>100-0</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>0-100</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>100-80%</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>80-60</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>60-40</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>40-20</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>20-60</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>60-20</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>20-80</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>80-20</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>20-100</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>100-20</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>40-80</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>80-40</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>40-100</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>100-40</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>60-100</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>100-60</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>0-20</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>0-40</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>0-60</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>0-80</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>20-0</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>40-0</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>60-0</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>80-0</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>最大电流</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>最低电流</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>档位</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>频率  Hz</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>转速上升</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>显示板耗时  秒</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>电机耗时   秒</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>转速下降</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>转速改变耗时测试:</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>待定修改：</t>
@@ -405,19 +405,19 @@
   </si>
   <si>
     <t>驱动板转速(最大值)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>驱动板转速(最小值)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>目标转速</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>下发转速  *5极数</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>定时模式下档位设置
@@ -688,15 +688,15 @@
   </si>
   <si>
     <t>心跳</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>查询状态</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>设置转速</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">02 01 1E F3 FF 03 </t>
@@ -706,19 +706,19 @@
   </si>
   <si>
     <t>查询所有寄存器</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>命令</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">02 05 08 00 00 00 00 02 2D 03 </t>
@@ -740,147 +740,147 @@
   </si>
   <si>
     <t>(电机关闭,暂停或关机)0%</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>显示板--&gt;驱动板</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>驱动板--&gt;显示板
 (串口模拟发送)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>发送数据帧——故障代码</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>过电流故障</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>04</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>过电压故障</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>01</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>欠电压故障</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>02</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>MOS过热故障</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>05</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>电机过热故障</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>06</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>驱动mcu欠压故障</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>09</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>驱动看门狗复位故障</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>0A</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>驱动flash损坏故障</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>0E</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>电流传感器1偏置故障-硬件误差过大</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">0F </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>电流传感器2偏置故障-硬件误差过大</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>电流传感器3偏置故障-硬件误差过大</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>11</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>驱动输出电流不平衡故障</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>12</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>驱动的其他故障</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>03</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>13</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>14</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>1A</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>E002</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>E001</t>
   </si>
   <si>
     <t>E101</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>E202</t>
@@ -890,57 +890,57 @@
   </si>
   <si>
     <t>未支持</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>驱动板故障种类</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>对应显示板故障种类</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>过流故障</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>母线电压异常</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>电机驱动故障</t>
   </si>
   <si>
     <t>电机驱动故障</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>驱动板电流传感器偏置故障</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>LCD显示</t>
   </si>
   <si>
     <t>MOS温度过高</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>E102</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>机箱温度过高</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>驱动板通讯故障</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>E203</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -962,16 +962,16 @@
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>/</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>状态回复
 (模拟 E002 过流故障)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>状态回复
@@ -979,54 +979,54 @@
 01 38: 312对应温度 31.2°C  
 01对应故障:E001母线电压异常(查看&lt;故障对应表&gt;)
 01 和 02 均为 E001故障</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>状态回复
 (模拟 E003 驱动板电流传感器偏置故障)
 0F \  10 \ 11 和 12 均为 E003故障</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">状态回复
 (模拟 E203 驱动板通讯故障)
 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>连续30秒收不到驱动板信息则报出E203故障,
 收到信息则故障恢复</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>状态回复
 (模拟 E202 电机驱动故障)
 09 \  0A \ 0E \ 03 \ 14 和 1A 均为 E202故障</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">状态回复
 (模拟 E101 MOS温度过高)
 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>状态回复
 (模拟高温限速 A1)
 mosfet温度 &gt;= 80°C时开始限速;
 注意: 故障码需要清零,否则优先报故障</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>状态回复
 (解除高温限速 A1)
 mosfet温度 &lt; 80°C时解除限速;
 注意: 故障码需要清零,否则优先报故障</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>模拟高温限速: 驱动板连续发10次"高温 状态回复"才能触发显示板报高温限速</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>第一个红色为MOS温度;
@@ -1034,11 +1034,11 @@
 最后两个字节为校验码:
 ( CRC-16/XMODEM )
 检验从第3字节开始到数据最后,即从04 01 38 --&gt; 00 00 01,计算得出 9A 39</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1097,7 +1097,7 @@
       </rPr>
       <t>9A 39</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1177,7 +1177,7 @@
       </rPr>
       <t>8E 3B</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1257,7 +1257,7 @@
       </rPr>
       <t>80 B9</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1337,7 +1337,7 @@
       </rPr>
       <t>28 74</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1417,7 +1417,7 @@
       </rPr>
       <t>5C CF</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1497,7 +1497,7 @@
       </rPr>
       <t>FD 82</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1587,7 +1587,7 @@
       </rPr>
       <t>4F CF</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>高温降速测试</t>
@@ -1600,44 +1600,44 @@
   </si>
   <si>
     <t>一:</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>串口模拟数据测试：(与显示板串口- CN5)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>串口模拟数据测试：(与驱动板串口 CN2)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>二:</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>该功能关闭只用于辅助功能测试,正式发布版本无效</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>&gt;= 70°C开始限速</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>&gt;= 90°C 停机,报E102故障</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>"F1"为机箱温度寄存器地址;
 红色 "50" 为温度值,16进制</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>模拟机箱温度(与显示板模拟数据发送 一次后一直有效,无需像驱动板调试那样连续发送)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>温度恢复</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1654,7 +1654,7 @@
       </rPr>
       <t>50</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1671,7 +1671,7 @@
       </rPr>
       <t>5A</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1688,7 +1688,7 @@
       </rPr>
       <t>20</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MOS管高温降速恢复
@@ -1747,7 +1747,7 @@
   </si>
   <si>
     <t>模拟故障: 驱动板连续发3次"状态回复"才能触发显示板报相应故障码</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>故障测试</t>
@@ -1760,7 +1760,7 @@
   <si>
     <t>状态回复
 正常状态,可用于故障恢复</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">屏幕进入故障界面,原时间位置显示相应故障码,如E001
@@ -1967,7 +1967,7 @@
   </si>
   <si>
     <t>上电后系统显示拨码开关数值和机型号（2秒）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>训练计划调速只对单前时段速度进行调速,如P1第一段:[0-2min:30%], 改成80%后只对0~2min这段时间有效,第二时段仍旧按计划[3-5min:40%]来运行;
@@ -2018,15 +2018,15 @@
   </si>
   <si>
     <t>wifi 无连接</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>wifi 开始配网</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>wifi 连接成功</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2043,11 +2043,11 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>wifi 故障</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2064,7 +2064,7 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2081,7 +2081,7 @@
       </rPr>
       <t>02</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2098,23 +2098,23 @@
       </rPr>
       <t>03</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>蓝牙 无连接</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>蓝牙 开始配网</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>蓝牙 连接成功</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>蓝牙 故障</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2131,7 +2131,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2148,7 +2148,7 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2165,7 +2165,7 @@
       </rPr>
       <t>02</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2182,7 +2182,7 @@
       </rPr>
       <t>03</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>1.单板下CN5串口接上串口工具;
@@ -2376,37 +2376,37 @@
 5：遥控与wifi无效
 6：485与wifi无效
 7：遥控，485，wifi无效</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>版本号版本号
 V xx.xx
 如 v 1.1显示如图</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>界面</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>波特率
 Modbus-485</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>一共4档可设：
 1200；2400；4800；9600</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>操作描述： ②	关机状态下，3秒内连续按8次 键，进入参数设置菜单。每次均从第1项开始显示，按 键切换设置项目；1分钟无操作或按 键退出参数设置，退出时保存全部设置数据；
 具体可设项目请看下方表格；通过   跳转进行参数设置，按 参数值+1，长按超过1秒可快速连续增加，按 参数值-1，长按超过1秒可快速连续减少；</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2470,10 +2470,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当前版本 V01.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修改节点地址
 目前节点地址无效,只需测试是否可修改和 存储成功</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2530,6 +2526,18 @@
 2.按[模式键]切换至菜单 5;
 3.[档位键]+,[定时键]-；范围：0-7；
 4.可随意更改至任意值，点击[电源键]退出并保存;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前版本 V00.01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2548,7 +2556,7 @@
     <numFmt numFmtId="179" formatCode="[&gt;=2]&quot;合格&quot;;[=1]&quot;不合格&quot;;"/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="51">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.14993743705557422"/>
@@ -2773,21 +2781,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="3" tint="0.24994659260841701"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="5"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
       <charset val="134"/>
@@ -3352,7 +3345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3382,23 +3375,20 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="176" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -3443,22 +3433,16 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="177" fontId="28" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
@@ -3467,28 +3451,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1">
@@ -3497,142 +3481,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="38" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="38" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="38" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="37" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="35" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="37" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="35" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="37" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="35" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
@@ -5167,17 +5151,17 @@
   </sheetPr>
   <dimension ref="A1:XFB140"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.87890625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.76171875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.76171875" style="22" customWidth="1"/>
     <col min="3" max="3" width="20.5859375" style="6" customWidth="1"/>
     <col min="4" max="4" width="25.41015625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="45.17578125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="45.17578125" style="25" customWidth="1"/>
     <col min="6" max="6" width="52.52734375" style="6" customWidth="1"/>
     <col min="7" max="7" width="24.234375" style="6" customWidth="1"/>
     <col min="8" max="8" width="25.234375" style="6" customWidth="1"/>
@@ -5209,7 +5193,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="27"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
@@ -5220,14 +5204,14 @@
     </row>
     <row r="2" spans="1:18" ht="26.65">
       <c r="A2" s="1"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="33">
-        <v>45420</v>
+      <c r="C2" s="31">
+        <v>45502</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="28"/>
+      <c r="E2" s="27"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -5238,12 +5222,12 @@
       <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="32">
         <f>COUNTIFS(待办事项列表[结果],0)</f>
         <v>0</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="28"/>
+      <c r="E3" s="27"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -5254,7 +5238,7 @@
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="32">
         <f>COUNTIFS(待办事项列表[结果],"=1")</f>
         <v>0</v>
       </c>
@@ -5268,7 +5252,7 @@
       <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="32">
         <f>COUNTIFS(待办事项列表[结果],"=2")</f>
         <v>61</v>
       </c>
@@ -5282,7 +5266,7 @@
       <c r="B6" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="32">
         <f>COUNTIFS(待办事项列表[结果],"=3")</f>
         <v>0</v>
       </c>
@@ -5292,1888 +5276,2100 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:18" ht="26.65">
-      <c r="B7" s="11"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:18" s="15" customFormat="1" ht="16.149999999999999">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17" t="s">
+      <c r="B7" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:18" s="14" customFormat="1" ht="16.149999999999999">
+      <c r="A8" s="13"/>
+      <c r="B8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
     </row>
     <row r="9" spans="1:18" ht="30">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>2</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="16">
-        <v>45412</v>
+      <c r="H9" s="19"/>
+      <c r="I9" s="15">
+        <v>45496</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="45">
-      <c r="A10" s="86"/>
-      <c r="B10" s="21">
+      <c r="A10" s="83"/>
+      <c r="B10" s="20">
         <v>2</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="16">
-        <v>45412</v>
+      <c r="H10" s="19"/>
+      <c r="I10" s="15">
+        <v>45496</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="30">
-      <c r="A11" s="86"/>
-      <c r="B11" s="21">
+      <c r="A11" s="83"/>
+      <c r="B11" s="20">
         <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="16">
-        <v>45412</v>
+      <c r="H11" s="19"/>
+      <c r="I11" s="15">
+        <v>45496</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="45">
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>2</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="16">
-        <v>45412</v>
+      <c r="H12" s="19"/>
+      <c r="I12" s="15">
+        <v>45496</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="16">
-        <v>45412</v>
+      <c r="H13" s="19"/>
+      <c r="I13" s="15">
+        <v>45496</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="30">
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="16">
-        <v>45412</v>
+      <c r="G14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="15">
+        <v>45496</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="45">
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>2</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="16">
-        <v>45412</v>
+      <c r="G15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="15">
+        <v>45496</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="75">
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>2</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="16">
-        <v>45412</v>
+      <c r="G16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="15">
+        <v>45496</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="90">
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>2</v>
       </c>
       <c r="C17"/>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="16">
-        <v>45412</v>
+      <c r="G17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="15">
+        <v>45496</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="75">
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>2</v>
       </c>
       <c r="C18"/>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="16">
-        <v>45412</v>
+      <c r="G18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="15">
+        <v>45496</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="90">
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>2</v>
       </c>
       <c r="C19"/>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="16">
-        <v>45412</v>
+      <c r="G19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="15">
+        <v>45496</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="75">
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>2</v>
       </c>
       <c r="C20"/>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="16">
-        <v>45412</v>
+      <c r="G20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="15">
+        <v>45496</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="90">
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>2</v>
       </c>
       <c r="C21"/>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="16">
-        <v>45412</v>
+      <c r="G21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="15">
+        <v>45496</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="90">
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>2</v>
       </c>
       <c r="C22" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="16"/>
+      <c r="G22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="15">
+        <v>45496</v>
+      </c>
     </row>
     <row r="23" spans="2:9" ht="90">
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <v>2</v>
       </c>
       <c r="C23"/>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="16"/>
+      <c r="G23" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="15">
+        <v>45496</v>
+      </c>
     </row>
     <row r="24" spans="2:9" ht="60">
-      <c r="B24" s="22">
+      <c r="B24" s="21">
         <v>2</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="16"/>
+      <c r="G24" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="15">
+        <v>45496</v>
+      </c>
     </row>
     <row r="25" spans="2:9" ht="45">
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <v>2</v>
       </c>
       <c r="C25"/>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="16"/>
+      <c r="G25" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="15">
+        <v>45496</v>
+      </c>
     </row>
     <row r="26" spans="2:9" ht="60">
-      <c r="B26" s="22">
+      <c r="B26" s="21">
         <v>2</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="25" t="s">
+      <c r="C26" s="35"/>
+      <c r="D26" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="16"/>
+      <c r="G26" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="15">
+        <v>45496</v>
+      </c>
     </row>
     <row r="27" spans="2:9" ht="45">
-      <c r="B27" s="22">
+      <c r="B27" s="21">
         <v>2</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="25" t="s">
+      <c r="C27" s="35"/>
+      <c r="D27" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="16"/>
+      <c r="G27" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="23"/>
+      <c r="I27" s="15">
+        <v>45496</v>
+      </c>
     </row>
     <row r="28" spans="2:9" ht="60">
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>2</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="25" t="s">
+      <c r="C28" s="35"/>
+      <c r="D28" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="16"/>
+      <c r="G28" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="15">
+        <v>45496</v>
+      </c>
     </row>
     <row r="29" spans="2:9" ht="45">
-      <c r="B29" s="22">
+      <c r="B29" s="21">
         <v>2</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="25" t="s">
+      <c r="C29" s="35"/>
+      <c r="D29" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="16"/>
+      <c r="G29" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="15">
+        <v>45496</v>
+      </c>
     </row>
     <row r="30" spans="2:9" ht="30">
-      <c r="B30" s="22">
+      <c r="B30" s="21">
         <v>2</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="16"/>
+      <c r="G30" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" s="15">
+        <v>45496</v>
+      </c>
     </row>
     <row r="31" spans="2:9" ht="60">
-      <c r="B31" s="22">
+      <c r="B31" s="21">
         <v>2</v>
       </c>
       <c r="C31"/>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="16"/>
+      <c r="G31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="15">
+        <v>45496</v>
+      </c>
     </row>
     <row r="32" spans="2:9" ht="45">
-      <c r="B32" s="22">
+      <c r="B32" s="21">
         <v>2</v>
       </c>
       <c r="C32" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="16"/>
+      <c r="G32" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="15">
+        <v>45496</v>
+      </c>
     </row>
     <row r="33" spans="2:9" ht="45">
-      <c r="B33" s="22">
+      <c r="B33" s="21">
         <v>2</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="25" t="s">
+      <c r="C33" s="35"/>
+      <c r="D33" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="16"/>
+      <c r="G33" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="23"/>
+      <c r="I33" s="15">
+        <v>45496</v>
+      </c>
     </row>
     <row r="34" spans="2:9" ht="60">
-      <c r="B34" s="22">
+      <c r="B34" s="21">
         <v>2</v>
       </c>
       <c r="C34" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="16"/>
+      <c r="G34" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="23"/>
+      <c r="I34" s="15">
+        <v>45496</v>
+      </c>
     </row>
     <row r="35" spans="2:9" ht="60">
-      <c r="B35" s="22">
+      <c r="B35" s="21">
         <v>2</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="25" t="s">
+      <c r="C35" s="35"/>
+      <c r="D35" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="16"/>
+      <c r="G35" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" s="15">
+        <v>45496</v>
+      </c>
     </row>
     <row r="36" spans="2:9" ht="45">
-      <c r="B36" s="22">
+      <c r="B36" s="21">
         <v>2</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="16"/>
+      <c r="G36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="23"/>
+      <c r="I36" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="37" spans="2:9" ht="60">
-      <c r="B37" s="22">
+      <c r="B37" s="21">
         <v>2</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="25" t="s">
+      <c r="C37" s="35"/>
+      <c r="D37" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="16"/>
+      <c r="G37" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="38" spans="2:9" ht="45">
-      <c r="B38" s="22">
+      <c r="B38" s="21">
         <v>2</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="25" t="s">
+      <c r="C38" s="35"/>
+      <c r="D38" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="16"/>
+      <c r="G38" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="23"/>
+      <c r="I38" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="39" spans="2:9" ht="60">
-      <c r="B39" s="22">
+      <c r="B39" s="21">
         <v>2</v>
       </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="25" t="s">
+      <c r="C39" s="35"/>
+      <c r="D39" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="16"/>
+      <c r="G39" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="23"/>
+      <c r="I39" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="40" spans="2:9" ht="45">
-      <c r="B40" s="22">
+      <c r="B40" s="21">
         <v>2</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="16"/>
+      <c r="G40" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="41" spans="2:9" ht="45">
-      <c r="B41" s="22">
+      <c r="B41" s="21">
         <v>2</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="25" t="s">
+      <c r="C41" s="35"/>
+      <c r="D41" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="16"/>
+      <c r="G41" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="23"/>
+      <c r="I41" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="42" spans="2:9" ht="60">
-      <c r="B42" s="22">
+      <c r="B42" s="21">
         <v>2</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="25" t="s">
+      <c r="C42" s="35"/>
+      <c r="D42" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="16"/>
+      <c r="G42" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="23"/>
+      <c r="I42" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="43" spans="2:9" ht="45">
-      <c r="B43" s="22">
+      <c r="B43" s="21">
         <v>2</v>
       </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="25" t="s">
+      <c r="C43" s="35"/>
+      <c r="D43" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="16"/>
+      <c r="G43" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="23"/>
+      <c r="I43" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="44" spans="2:9" ht="60">
-      <c r="B44" s="22">
+      <c r="B44" s="21">
         <v>2</v>
       </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="25" t="s">
+      <c r="C44" s="35"/>
+      <c r="D44" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="16"/>
+      <c r="G44" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="23"/>
+      <c r="I44" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="45" spans="2:9" ht="30">
-      <c r="B45" s="31">
+      <c r="B45" s="30">
         <v>2</v>
       </c>
-      <c r="C45" s="39"/>
-      <c r="D45" s="25" t="s">
+      <c r="C45" s="36"/>
+      <c r="D45" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G45" s="32"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="30"/>
+      <c r="G45" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="28"/>
+      <c r="I45" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="46" spans="2:9" ht="45">
-      <c r="B46" s="31">
+      <c r="B46" s="30">
         <v>2</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="G46" s="32"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="30"/>
+      <c r="G46" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="28"/>
+      <c r="I46" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="47" spans="2:9" ht="45">
-      <c r="B47" s="31">
+      <c r="B47" s="30">
         <v>2</v>
       </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="25" t="s">
+      <c r="C47" s="36"/>
+      <c r="D47" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="30"/>
+      <c r="G47" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="28"/>
+      <c r="I47" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="48" spans="2:9" ht="45">
-      <c r="B48" s="31">
+      <c r="B48" s="30">
         <v>2</v>
       </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="25" t="s">
+      <c r="C48" s="36"/>
+      <c r="D48" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="30"/>
+      <c r="G48" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="28"/>
+      <c r="I48" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="49" spans="2:9" ht="60">
-      <c r="B49" s="31">
+      <c r="B49" s="30">
         <v>2</v>
       </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="25" t="s">
+      <c r="C49" s="36"/>
+      <c r="D49" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="30"/>
+      <c r="G49" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="28"/>
+      <c r="I49" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="50" spans="2:9" ht="45">
-      <c r="B50" s="31">
+      <c r="B50" s="30">
         <v>2</v>
       </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="29" t="s">
+      <c r="C50" s="36"/>
+      <c r="D50" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="E50" s="29" t="s">
+      <c r="E50" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="30"/>
+      <c r="G50" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="28"/>
+      <c r="I50" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="51" spans="2:9" ht="30">
-      <c r="B51" s="31">
+      <c r="B51" s="30">
         <v>2</v>
       </c>
-      <c r="C51" s="39"/>
-      <c r="D51" s="29" t="s">
+      <c r="C51" s="36"/>
+      <c r="D51" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="E51" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="F51" s="29" t="s">
+      <c r="F51" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="30"/>
+      <c r="G51" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="28"/>
+      <c r="I51" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="52" spans="2:9" ht="75">
-      <c r="B52" s="31">
+      <c r="B52" s="30">
         <v>2</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F52" s="29" t="s">
+      <c r="F52" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="30"/>
+      <c r="G52" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="28"/>
+      <c r="I52" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="53" spans="2:9" ht="75">
-      <c r="B53" s="31">
+      <c r="B53" s="30">
         <v>2</v>
       </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="29" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="E53" s="29" t="s">
+      <c r="E53" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F53" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="30"/>
+      <c r="G53" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="28"/>
+      <c r="I53" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="31">
+      <c r="B54" s="30">
         <v>2</v>
       </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="29" t="s">
+      <c r="C54" s="36"/>
+      <c r="D54" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="E54" s="29" t="s">
+      <c r="E54" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="F54" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="30"/>
+      <c r="G54" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="28"/>
+      <c r="I54" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="55" spans="2:9" ht="45">
-      <c r="B55" s="31">
+      <c r="B55" s="30">
         <v>2</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D55" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="E55" s="29" t="s">
+      <c r="E55" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="F55" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="30"/>
+      <c r="G55" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="28"/>
+      <c r="I55" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="56" spans="2:9" ht="45">
-      <c r="B56" s="31">
+      <c r="B56" s="30">
         <v>2</v>
       </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="29" t="s">
+      <c r="C56" s="36"/>
+      <c r="D56" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E56" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="F56" s="29" t="s">
+      <c r="F56" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="30"/>
+      <c r="G56" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="28"/>
+      <c r="I56" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="57" spans="2:9" ht="45">
-      <c r="B57" s="31">
+      <c r="B57" s="30">
         <v>2</v>
       </c>
-      <c r="C57" s="39"/>
-      <c r="D57" s="29" t="s">
+      <c r="C57" s="36"/>
+      <c r="D57" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="F57" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="30"/>
+      <c r="G57" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="28"/>
+      <c r="I57" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="58" spans="2:9" ht="45">
-      <c r="B58" s="31">
+      <c r="B58" s="30">
         <v>2</v>
       </c>
-      <c r="C58" s="39"/>
-      <c r="D58" s="29" t="s">
+      <c r="C58" s="36"/>
+      <c r="D58" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F58" s="29" t="s">
+      <c r="F58" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="30"/>
+      <c r="G58" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="28"/>
+      <c r="I58" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="59" spans="2:9" ht="45">
-      <c r="B59" s="31">
+      <c r="B59" s="30">
         <v>2</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="E59" s="29" t="s">
+      <c r="E59" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="F59" s="29" t="s">
+      <c r="F59" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="30"/>
+      <c r="G59" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="28"/>
+      <c r="I59" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="60" spans="2:9" ht="45">
-      <c r="B60" s="31">
+      <c r="B60" s="30">
         <v>2</v>
       </c>
-      <c r="C60" s="39"/>
-      <c r="D60" s="29" t="s">
+      <c r="C60" s="36"/>
+      <c r="D60" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="E60" s="20" t="s">
+      <c r="E60" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="F60" s="29" t="s">
+      <c r="F60" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="30"/>
+      <c r="G60" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="28"/>
+      <c r="I60" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="61" spans="2:9" ht="45">
-      <c r="B61" s="31">
+      <c r="B61" s="30">
         <v>2</v>
       </c>
-      <c r="C61" s="39"/>
-      <c r="D61" s="29" t="s">
+      <c r="C61" s="36"/>
+      <c r="D61" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="E61" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="F61" s="29" t="s">
+      <c r="F61" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="30"/>
+      <c r="G61" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="28"/>
+      <c r="I61" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="62" spans="2:9" ht="45">
-      <c r="B62" s="31">
+      <c r="B62" s="30">
         <v>2</v>
       </c>
-      <c r="C62" s="39"/>
-      <c r="D62" s="29" t="s">
+      <c r="C62" s="36"/>
+      <c r="D62" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="F62" s="29" t="s">
+      <c r="F62" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="30"/>
+      <c r="G62" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="28"/>
+      <c r="I62" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="63" spans="2:9" ht="30">
-      <c r="B63" s="31">
+      <c r="B63" s="30">
         <v>2</v>
       </c>
-      <c r="C63" s="39" t="s">
+      <c r="C63" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="E63" s="29" t="s">
+      <c r="E63" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="F63" s="29" t="s">
+      <c r="F63" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="30"/>
+      <c r="G63" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="28"/>
+      <c r="I63" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="64" spans="2:9" ht="75">
-      <c r="B64" s="31">
+      <c r="B64" s="30">
         <v>2</v>
       </c>
-      <c r="C64" s="39" t="s">
+      <c r="C64" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E64" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="F64" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="30"/>
+      <c r="G64" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="28"/>
+      <c r="I64" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="65" spans="2:9" ht="106.5">
-      <c r="B65" s="31">
+      <c r="B65" s="30">
         <v>2</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="E65" s="29" t="s">
+      <c r="E65" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="28"/>
+      <c r="I65" s="15">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="30">
+      <c r="B66" s="30">
+        <v>2</v>
+      </c>
+      <c r="C66" s="36"/>
+      <c r="D66" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F66" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="28"/>
+      <c r="I66" s="15">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="60">
+      <c r="B67" s="30">
+        <v>2</v>
+      </c>
+      <c r="C67" s="36"/>
+      <c r="D67" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="E67" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="F65" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="30"/>
-    </row>
-    <row r="66" spans="2:9" ht="30">
-      <c r="B66" s="31">
+      <c r="F67" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="28"/>
+      <c r="I67" s="15">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="75">
+      <c r="B68" s="30">
         <v>2</v>
       </c>
-      <c r="C66" s="39"/>
-      <c r="D66" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>379</v>
-      </c>
-      <c r="F66" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="30"/>
-    </row>
-    <row r="67" spans="2:9" ht="60">
-      <c r="B67" s="31">
+      <c r="C68" s="36"/>
+      <c r="D68" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="28"/>
+      <c r="I68" s="15">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="60">
+      <c r="B69" s="30">
         <v>2</v>
       </c>
-      <c r="C67" s="39"/>
-      <c r="D67" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="E67" s="29" t="s">
+      <c r="C69" s="36"/>
+      <c r="D69" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="E69" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="F67" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="30"/>
-    </row>
-    <row r="68" spans="2:9" ht="75">
-      <c r="B68" s="31">
-        <v>2</v>
-      </c>
-      <c r="C68" s="39"/>
-      <c r="D68" s="29" t="s">
+      <c r="F69" s="28" t="s">
         <v>375</v>
       </c>
-      <c r="E68" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="F68" s="29" t="s">
-        <v>376</v>
-      </c>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="30"/>
-    </row>
-    <row r="69" spans="2:9" ht="60">
-      <c r="B69" s="31">
-        <v>2</v>
-      </c>
-      <c r="C69" s="39"/>
-      <c r="D69" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="F69" s="29" t="s">
-        <v>376</v>
-      </c>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="30"/>
+      <c r="G69" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="28"/>
+      <c r="I69" s="15">
+        <v>45499</v>
+      </c>
     </row>
     <row r="70" spans="2:9">
-      <c r="B70" s="31"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="30"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="29"/>
     </row>
     <row r="71" spans="2:9">
-      <c r="B71" s="31"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="30"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="29"/>
     </row>
     <row r="72" spans="2:9">
-      <c r="B72" s="31"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="30"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="29"/>
     </row>
     <row r="73" spans="2:9">
-      <c r="B73" s="31"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="29"/>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="31"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="29"/>
     </row>
     <row r="75" spans="2:9">
-      <c r="B75" s="31"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="30"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="29"/>
     </row>
     <row r="76" spans="2:9">
-      <c r="B76" s="31"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="29"/>
     </row>
     <row r="77" spans="2:9">
-      <c r="B77" s="31"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="30"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="29"/>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="31"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="30"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="29"/>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="31"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="30"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="29"/>
     </row>
     <row r="80" spans="2:9">
-      <c r="B80" s="31"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="30"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="29"/>
     </row>
     <row r="81" spans="2:9">
-      <c r="B81" s="31"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="30"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="29"/>
     </row>
     <row r="82" spans="2:9">
-      <c r="B82" s="31"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="29"/>
     </row>
     <row r="83" spans="2:9">
-      <c r="B83" s="31"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="30"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="29"/>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="31"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="30"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="29"/>
     </row>
     <row r="85" spans="2:9">
-      <c r="B85" s="31"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="30"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="29"/>
     </row>
     <row r="86" spans="2:9">
-      <c r="B86" s="31"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="30"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="29"/>
     </row>
     <row r="87" spans="2:9">
-      <c r="B87" s="31"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="30"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="29"/>
     </row>
     <row r="88" spans="2:9">
-      <c r="B88" s="31"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="30"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="29"/>
     </row>
     <row r="89" spans="2:9">
-      <c r="B89" s="31"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="30"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="29"/>
     </row>
     <row r="90" spans="2:9">
-      <c r="B90" s="31"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="29"/>
     </row>
     <row r="91" spans="2:9">
-      <c r="B91" s="31"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="30"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="29"/>
     </row>
     <row r="92" spans="2:9">
-      <c r="B92" s="31"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="30"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="29"/>
     </row>
     <row r="93" spans="2:9">
-      <c r="B93" s="31"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="30"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="29"/>
     </row>
     <row r="94" spans="2:9">
-      <c r="B94" s="31"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="30"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="29"/>
     </row>
     <row r="95" spans="2:9">
-      <c r="B95" s="31"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="30"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="29"/>
     </row>
     <row r="96" spans="2:9">
-      <c r="B96" s="31"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="30"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="29"/>
     </row>
     <row r="97" spans="2:9">
-      <c r="B97" s="31"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="30"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="29"/>
     </row>
     <row r="98" spans="2:9">
-      <c r="B98" s="31"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="30"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="29"/>
     </row>
     <row r="99" spans="2:9">
-      <c r="B99" s="31"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="30"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="29"/>
     </row>
     <row r="100" spans="2:9">
-      <c r="B100" s="31"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="30"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="29"/>
     </row>
     <row r="101" spans="2:9">
-      <c r="B101" s="31"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="30"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="29"/>
     </row>
     <row r="102" spans="2:9">
-      <c r="B102" s="31"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="30"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="29"/>
     </row>
     <row r="103" spans="2:9">
-      <c r="B103" s="31"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="30"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="29"/>
     </row>
     <row r="104" spans="2:9">
-      <c r="B104" s="31"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="30"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="29"/>
     </row>
     <row r="105" spans="2:9">
-      <c r="B105" s="31"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="29"/>
-      <c r="I105" s="30"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="29"/>
     </row>
     <row r="106" spans="2:9">
-      <c r="B106" s="31"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29"/>
-      <c r="H106" s="29"/>
-      <c r="I106" s="30"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="29"/>
     </row>
     <row r="107" spans="2:9">
-      <c r="B107" s="31"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="30"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="29"/>
     </row>
     <row r="108" spans="2:9">
-      <c r="B108" s="31"/>
-      <c r="C108" s="39"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="29"/>
-      <c r="H108" s="29"/>
-      <c r="I108" s="30"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="29"/>
     </row>
     <row r="109" spans="2:9">
-      <c r="B109" s="31"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="29"/>
-      <c r="I109" s="30"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="29"/>
     </row>
     <row r="110" spans="2:9">
-      <c r="B110" s="31"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="29"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="29"/>
-      <c r="H110" s="29"/>
-      <c r="I110" s="30"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="29"/>
     </row>
     <row r="111" spans="2:9">
-      <c r="B111" s="31"/>
-      <c r="C111" s="39"/>
-      <c r="D111" s="29"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="29"/>
-      <c r="H111" s="29"/>
-      <c r="I111" s="30"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="29"/>
     </row>
     <row r="112" spans="2:9">
-      <c r="B112" s="31"/>
-      <c r="C112" s="39"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="29"/>
-      <c r="H112" s="29"/>
-      <c r="I112" s="30"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="28"/>
+      <c r="I112" s="29"/>
     </row>
     <row r="113" spans="2:9">
-      <c r="B113" s="31"/>
-      <c r="C113" s="39"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="29"/>
-      <c r="H113" s="29"/>
-      <c r="I113" s="30"/>
+      <c r="B113" s="30"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="29"/>
     </row>
     <row r="114" spans="2:9">
-      <c r="B114" s="31"/>
-      <c r="C114" s="39"/>
-      <c r="D114" s="29"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="29"/>
-      <c r="H114" s="29"/>
-      <c r="I114" s="30"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="36"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="29"/>
     </row>
     <row r="115" spans="2:9">
-      <c r="B115" s="31"/>
-      <c r="C115" s="39"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="29"/>
-      <c r="H115" s="29"/>
-      <c r="I115" s="30"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="36"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="29"/>
     </row>
     <row r="116" spans="2:9">
-      <c r="B116" s="31"/>
-      <c r="C116" s="39"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="29"/>
-      <c r="H116" s="29"/>
-      <c r="I116" s="30"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="29"/>
     </row>
     <row r="117" spans="2:9">
-      <c r="B117" s="31"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="29"/>
-      <c r="H117" s="29"/>
-      <c r="I117" s="30"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="36"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="28"/>
+      <c r="I117" s="29"/>
     </row>
     <row r="118" spans="2:9">
-      <c r="B118" s="31"/>
-      <c r="C118" s="39"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="29"/>
-      <c r="H118" s="29"/>
-      <c r="I118" s="30"/>
+      <c r="B118" s="30"/>
+      <c r="C118" s="36"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
+      <c r="H118" s="28"/>
+      <c r="I118" s="29"/>
     </row>
     <row r="119" spans="2:9">
-      <c r="B119" s="31"/>
-      <c r="C119" s="39"/>
-      <c r="D119" s="29"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="29"/>
-      <c r="H119" s="29"/>
-      <c r="I119" s="30"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="28"/>
+      <c r="H119" s="28"/>
+      <c r="I119" s="29"/>
     </row>
     <row r="120" spans="2:9">
-      <c r="B120" s="31"/>
-      <c r="C120" s="39"/>
-      <c r="D120" s="29"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="29"/>
-      <c r="H120" s="29"/>
-      <c r="I120" s="30"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="36"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="29"/>
     </row>
     <row r="121" spans="2:9">
-      <c r="B121" s="31"/>
-      <c r="C121" s="39"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="29"/>
-      <c r="H121" s="29"/>
-      <c r="I121" s="30"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="28"/>
+      <c r="H121" s="28"/>
+      <c r="I121" s="29"/>
     </row>
     <row r="122" spans="2:9">
-      <c r="B122" s="31"/>
-      <c r="C122" s="39"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="29"/>
-      <c r="H122" s="29"/>
-      <c r="I122" s="30"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="36"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
+      <c r="H122" s="28"/>
+      <c r="I122" s="29"/>
     </row>
     <row r="123" spans="2:9">
-      <c r="B123" s="31"/>
-      <c r="C123" s="39"/>
-      <c r="D123" s="29"/>
-      <c r="E123" s="29"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="29"/>
-      <c r="H123" s="29"/>
-      <c r="I123" s="30"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="36"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="28"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
+      <c r="H123" s="28"/>
+      <c r="I123" s="29"/>
     </row>
     <row r="124" spans="2:9">
-      <c r="B124" s="31"/>
-      <c r="C124" s="39"/>
-      <c r="D124" s="29"/>
-      <c r="E124" s="29"/>
-      <c r="F124" s="29"/>
-      <c r="G124" s="29"/>
-      <c r="H124" s="29"/>
-      <c r="I124" s="30"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="36"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="28"/>
+      <c r="H124" s="28"/>
+      <c r="I124" s="29"/>
     </row>
     <row r="125" spans="2:9">
-      <c r="B125" s="31"/>
-      <c r="C125" s="39"/>
-      <c r="D125" s="29"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="29"/>
-      <c r="H125" s="29"/>
-      <c r="I125" s="30"/>
+      <c r="B125" s="30"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="28"/>
+      <c r="I125" s="29"/>
     </row>
     <row r="126" spans="2:9">
-      <c r="B126" s="31"/>
-      <c r="C126" s="39"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="29"/>
-      <c r="H126" s="29"/>
-      <c r="I126" s="30"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="28"/>
+      <c r="H126" s="28"/>
+      <c r="I126" s="29"/>
     </row>
     <row r="127" spans="2:9">
-      <c r="B127" s="31"/>
-      <c r="C127" s="39"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="29"/>
-      <c r="H127" s="29"/>
-      <c r="I127" s="30"/>
+      <c r="B127" s="30"/>
+      <c r="C127" s="36"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="28"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="28"/>
+      <c r="H127" s="28"/>
+      <c r="I127" s="29"/>
     </row>
     <row r="128" spans="2:9">
-      <c r="B128" s="31"/>
-      <c r="C128" s="39"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="29"/>
-      <c r="H128" s="29"/>
-      <c r="I128" s="30"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="36"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="28"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="28"/>
+      <c r="I128" s="29"/>
     </row>
     <row r="129" spans="2:9">
-      <c r="B129" s="31"/>
-      <c r="C129" s="39"/>
-      <c r="D129" s="29"/>
-      <c r="E129" s="29"/>
-      <c r="F129" s="29"/>
-      <c r="G129" s="29"/>
-      <c r="H129" s="29"/>
-      <c r="I129" s="30"/>
+      <c r="B129" s="30"/>
+      <c r="C129" s="36"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="28"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="28"/>
+      <c r="H129" s="28"/>
+      <c r="I129" s="29"/>
     </row>
     <row r="130" spans="2:9">
-      <c r="B130" s="31"/>
-      <c r="C130" s="39"/>
-      <c r="D130" s="29"/>
-      <c r="E130" s="29"/>
-      <c r="F130" s="29"/>
-      <c r="G130" s="29"/>
-      <c r="H130" s="29"/>
-      <c r="I130" s="30"/>
+      <c r="B130" s="30"/>
+      <c r="C130" s="36"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="28"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="28"/>
+      <c r="H130" s="28"/>
+      <c r="I130" s="29"/>
     </row>
     <row r="131" spans="2:9">
-      <c r="B131" s="31"/>
-      <c r="C131" s="39"/>
-      <c r="D131" s="29"/>
-      <c r="E131" s="29"/>
-      <c r="F131" s="29"/>
-      <c r="G131" s="29"/>
-      <c r="H131" s="29"/>
-      <c r="I131" s="30"/>
+      <c r="B131" s="30"/>
+      <c r="C131" s="36"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="28"/>
+      <c r="H131" s="28"/>
+      <c r="I131" s="29"/>
     </row>
     <row r="132" spans="2:9">
-      <c r="B132" s="31"/>
-      <c r="C132" s="39"/>
-      <c r="D132" s="29"/>
-      <c r="E132" s="29"/>
-      <c r="F132" s="29"/>
-      <c r="G132" s="29"/>
-      <c r="H132" s="29"/>
-      <c r="I132" s="30"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="36"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="28"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="28"/>
+      <c r="H132" s="28"/>
+      <c r="I132" s="29"/>
     </row>
     <row r="133" spans="2:9">
-      <c r="B133" s="31"/>
-      <c r="C133" s="39"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="29"/>
-      <c r="H133" s="29"/>
-      <c r="I133" s="30"/>
+      <c r="B133" s="30"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="28"/>
+      <c r="H133" s="28"/>
+      <c r="I133" s="29"/>
     </row>
     <row r="134" spans="2:9">
-      <c r="B134" s="31"/>
-      <c r="C134" s="39"/>
-      <c r="D134" s="29"/>
-      <c r="E134" s="29"/>
-      <c r="F134" s="29"/>
-      <c r="G134" s="29"/>
-      <c r="H134" s="29"/>
-      <c r="I134" s="30"/>
+      <c r="B134" s="30"/>
+      <c r="C134" s="36"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="28"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="28"/>
+      <c r="I134" s="29"/>
     </row>
     <row r="135" spans="2:9">
-      <c r="B135" s="31"/>
-      <c r="C135" s="39"/>
-      <c r="D135" s="29"/>
-      <c r="E135" s="29"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="29"/>
-      <c r="H135" s="29"/>
-      <c r="I135" s="30"/>
+      <c r="B135" s="30"/>
+      <c r="C135" s="36"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="28"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="28"/>
+      <c r="H135" s="28"/>
+      <c r="I135" s="29"/>
     </row>
     <row r="140" spans="2:9">
       <c r="B140" s="6"/>
@@ -7212,10 +7408,10 @@
       <formula>$B47=2</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="13">
+  <dataValidations count="12">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此工作簿中创建待办事项列表。在此工作表的“待办事项列表”表中输入详细信息。选择单元格 F1 导航到“安排”工作表。今日应办和逾期天数将自动更新" sqref="A1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="“任务安排”工作表的导航链接" sqref="F1:G7" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="日期将在此单元格中自动更新，今日应办和逾期天数位于下方单元格中" sqref="B2:C2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="日期将在此单元格中自动更新，今日应办和逾期天数位于下方单元格中" sqref="B2:C2 B7:C7" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="右侧单元格将自动更新今日应办" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="此单元格将自动更新今日应办" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入说明" sqref="C8:D8" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
@@ -7224,7 +7420,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="此工作表的标题位于此 C1中。日期将在单元格 B2 中自动更新，今日应办和逾期天数位于单元格 C3 和 C4 中。下一步提示位于下方单元格中。" sqref="B1" xr:uid="{A1419114-EA4B-4682-BE7E-B798760663B5}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="右侧单元格将自动更新逾期天数" sqref="B5:B6" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="此单元格将自动更新逾期天数。在下表中输入详细信息。表提示位于单元格 A6" sqref="C5:C6" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B7:C7" xr:uid="{254DA3D6-ECB4-4C15-B279-41BA4F74C3F3}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入截止日期" sqref="E8:I8" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
   </dataValidations>
   <hyperlinks>
@@ -7268,8 +7463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD42A82-3F32-4E24-94D6-8BAD440A6D9B}">
   <dimension ref="A2:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7284,313 +7479,313 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>229</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="74">
+      <c r="A4" s="71">
         <v>1</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="72"/>
+      <c r="E4" s="69"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="74">
+      <c r="A5" s="71">
         <v>2</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="68" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="74">
+      <c r="A6" s="71">
         <v>3</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72" t="s">
+      <c r="B6" s="69"/>
+      <c r="C6" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="72" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="74">
+      <c r="A7" s="71">
         <v>4</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71" t="s">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E7" s="73">
         <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="74">
+      <c r="A8" s="71">
         <v>5</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="74">
         <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="74">
+      <c r="A9" s="71">
         <v>6</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="73">
         <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="74">
+      <c r="A10" s="71">
         <v>7</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72" t="s">
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="77">
+      <c r="E10" s="74">
         <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="74">
+      <c r="A11" s="71">
         <v>8</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="74">
+      <c r="A12" s="71">
         <v>9</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="84" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
     </row>
     <row r="13" spans="1:5" ht="105">
-      <c r="A13" s="74">
+      <c r="A13" s="71">
         <v>10</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="68" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="120" customHeight="1">
-      <c r="A14" s="74">
+      <c r="A14" s="71">
         <v>11</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72" t="s">
+      <c r="B14" s="69"/>
+      <c r="C14" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="72"/>
+      <c r="E14" s="69"/>
     </row>
     <row r="15" spans="1:5" ht="93">
-      <c r="A15" s="74">
+      <c r="A15" s="71">
         <v>12</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="E15" s="71"/>
+      <c r="E15" s="68"/>
     </row>
     <row r="16" spans="1:5" ht="93">
-      <c r="A16" s="74">
+      <c r="A16" s="71">
         <v>13</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72" t="s">
+      <c r="B16" s="69"/>
+      <c r="C16" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="69" t="s">
         <v>224</v>
       </c>
-      <c r="E16" s="72"/>
+      <c r="E16" s="69"/>
     </row>
     <row r="17" spans="1:5" ht="93">
-      <c r="A17" s="74">
+      <c r="A17" s="71">
         <v>14</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71" t="s">
+      <c r="B17" s="68"/>
+      <c r="C17" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="E17" s="71"/>
+      <c r="E17" s="68"/>
     </row>
     <row r="18" spans="1:5" ht="93">
-      <c r="A18" s="74">
+      <c r="A18" s="71">
         <v>15</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72" t="s">
+      <c r="B18" s="69"/>
+      <c r="C18" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="69" t="s">
         <v>222</v>
       </c>
-      <c r="E18" s="72"/>
+      <c r="E18" s="69"/>
     </row>
     <row r="19" spans="1:5" ht="45">
-      <c r="A19" s="74">
+      <c r="A19" s="71">
         <v>16</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71" t="s">
+      <c r="B19" s="68"/>
+      <c r="C19" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="E19" s="71"/>
+      <c r="E19" s="68"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="74">
+      <c r="A20" s="71">
         <v>17</v>
       </c>
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
     </row>
     <row r="21" spans="1:5" ht="93">
-      <c r="A21" s="74">
+      <c r="A21" s="71">
         <v>18</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="E21" s="71"/>
+      <c r="E21" s="68"/>
     </row>
     <row r="22" spans="1:5" ht="92.25">
-      <c r="A22" s="74">
+      <c r="A22" s="71">
         <v>19</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72" t="s">
+      <c r="B22" s="69"/>
+      <c r="C22" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="E22" s="72"/>
+      <c r="E22" s="69"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:5" ht="31.5">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="D26" s="47"/>
+      <c r="D26" s="44"/>
     </row>
     <row r="27" spans="1:5" ht="30">
-      <c r="A27" s="45">
+      <c r="A27" s="42">
         <v>20</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="43" t="s">
         <v>239</v>
       </c>
       <c r="E27" t="s">
@@ -7598,169 +7793,169 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75">
-      <c r="A28" s="43">
+      <c r="A28" s="40">
         <v>21</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="38" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75">
-      <c r="A29" s="44">
+      <c r="A29" s="41">
         <v>22</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="39" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75">
-      <c r="A30" s="45">
+      <c r="A30" s="42">
         <v>23</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46" t="s">
+      <c r="B30" s="43"/>
+      <c r="C30" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="43" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75">
-      <c r="A31" s="43">
+      <c r="A31" s="40">
         <v>24</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="46" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="43" t="s">
         <v>307</v>
       </c>
-      <c r="D31" s="46" t="s">
+      <c r="D31" s="43" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75">
-      <c r="A32" s="44">
+      <c r="A32" s="41">
         <v>25</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="46" t="s">
+      <c r="B32" s="39"/>
+      <c r="C32" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="43" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75">
-      <c r="A33" s="45">
+      <c r="A33" s="42">
         <v>26</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46" t="s">
+      <c r="B33" s="43"/>
+      <c r="C33" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="43" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75">
-      <c r="A34" s="43">
+      <c r="A34" s="40">
         <v>27</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="46" t="s">
+      <c r="B34" s="38"/>
+      <c r="C34" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="15.75">
-      <c r="A35" s="44">
+      <c r="A35" s="41">
         <v>28</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="46" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="D35" s="46" t="s">
+      <c r="D35" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="F35" s="62"/>
+      <c r="F35" s="59"/>
     </row>
     <row r="36" spans="1:6" ht="15.75">
-      <c r="A36" s="45">
+      <c r="A36" s="42">
         <v>29</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46" t="s">
+      <c r="B36" s="43"/>
+      <c r="C36" s="43" t="s">
         <v>316</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="43" t="s">
         <v>320</v>
       </c>
-      <c r="F36" s="62"/>
+      <c r="F36" s="59"/>
     </row>
     <row r="37" spans="1:6" ht="15.75">
-      <c r="A37" s="43">
+      <c r="A37" s="40">
         <v>30</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="46" t="s">
+      <c r="B37" s="38"/>
+      <c r="C37" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="43" t="s">
         <v>321</v>
       </c>
-      <c r="F37" s="62"/>
+      <c r="F37" s="59"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="44">
+      <c r="A38" s="41">
         <v>31</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="F38" s="62"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="F38" s="59"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="45">
+      <c r="A39" s="42">
         <v>32</v>
       </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="F39" s="62"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="F39" s="59"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="43">
+      <c r="A40" s="40">
         <v>33</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="44">
+      <c r="A41" s="41">
         <v>34</v>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B20:E20"/>
   </mergeCells>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7769,7 +7964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62917C4E-B4EC-4168-8A12-78BA8F0FC0D3}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -7782,234 +7977,234 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="31.05" customHeight="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="62" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="31.05" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="64" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="31.05" customHeight="1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="92" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="31.05" customHeight="1">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
     </row>
     <row r="6" spans="1:4" ht="31.05" customHeight="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="62" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="31.05" customHeight="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="64" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="31.05" customHeight="1">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="92" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="92" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.05" customHeight="1">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
     </row>
     <row r="10" spans="1:4" ht="31.05" customHeight="1">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
     </row>
     <row r="11" spans="1:4" ht="46.05" customHeight="1">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="87" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="46.05" customHeight="1">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
     </row>
     <row r="13" spans="1:4" ht="46.05" customHeight="1">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
     </row>
     <row r="14" spans="1:4" ht="31.05" customHeight="1">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
     </row>
     <row r="15" spans="1:4" ht="31.05" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="D15" s="90" t="s">
+      <c r="D15" s="87" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="89"/>
-      <c r="B16" s="68" t="s">
+      <c r="A16" s="86"/>
+      <c r="B16" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
     </row>
     <row r="17" spans="1:4" ht="15.75">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="91" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
     </row>
     <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="94"/>
-      <c r="B18" s="68" t="s">
+      <c r="A18" s="91"/>
+      <c r="B18" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="68" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="69" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="69" t="s">
         <v>205</v>
       </c>
     </row>
@@ -8026,7 +8221,7 @@
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="D11:D14"/>
   </mergeCells>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8055,388 +8250,388 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="47" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="44" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="43">
         <v>11.83</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="43">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="45" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="43">
         <v>6.64</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="43">
         <v>4.29</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="38">
         <v>22.7</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="38">
         <v>8.32</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="43" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="38">
         <v>17.89</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="38">
         <v>8.0299999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="37">
         <v>32.82</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="37">
         <v>12.34</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="43" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="37">
         <v>28.4</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="37">
         <v>12.25</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="38">
         <v>42.41</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="38">
         <v>16.45</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="43" t="s">
+      <c r="D7" s="46"/>
+      <c r="E7" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="38">
         <v>38.6</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="38">
         <v>16.38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="37">
         <v>54.79</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="37">
         <v>20.2</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="43" t="s">
+      <c r="D8" s="46"/>
+      <c r="E8" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="37">
         <v>48.15</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="37">
         <v>20.100000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="38">
         <v>16.02</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="38">
         <v>5</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="43" t="s">
+      <c r="D10" s="46"/>
+      <c r="E10" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="38">
         <v>11.56</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="38">
         <v>4.37</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="37">
         <v>23.23</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="37">
         <v>8.19</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="43" t="s">
+      <c r="D11" s="46"/>
+      <c r="E11" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="37">
         <v>21.56</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="37">
         <v>8.15</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="38">
         <v>32.92</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="38">
         <v>12.37</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="43" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="38">
         <v>32.520000000000003</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="38">
         <v>12.23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="37">
         <v>42.4</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="37">
         <v>16.22</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="43" t="s">
+      <c r="D13" s="46"/>
+      <c r="E13" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="37">
         <v>42.5</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="37">
         <v>16.47</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="38">
         <v>20.170000000000002</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="38">
         <v>4.4800000000000004</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="43" t="s">
+      <c r="D15" s="46"/>
+      <c r="E15" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="38">
         <v>13.24</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="38">
         <v>4.96</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="37">
         <v>22.69</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="37">
         <v>8.27</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="43" t="s">
+      <c r="D16" s="46"/>
+      <c r="E16" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="37">
         <v>22.02</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="37">
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="38">
         <v>32.76</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="38">
         <v>12.18</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="43" t="s">
+      <c r="D17" s="46"/>
+      <c r="E17" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="38">
         <v>32.340000000000003</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="38">
         <v>12.65</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="37">
         <v>17.649999999999999</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="37">
         <v>5.12</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="43" t="s">
+      <c r="D19" s="46"/>
+      <c r="E19" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="37">
         <v>15.03</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="37">
         <v>4.54</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="38">
         <v>22.42</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="38">
         <v>8.31</v>
       </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="43" t="s">
+      <c r="D20" s="46"/>
+      <c r="E20" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="38">
         <v>22.83</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="38">
         <v>8.06</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="42">
+      <c r="B22" s="39">
         <v>15.57</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="39">
         <v>5.08</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="44" t="s">
+      <c r="D22" s="46"/>
+      <c r="E22" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="39">
         <v>15.88</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="39">
         <v>4.5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8458,190 +8653,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="58"/>
+      <c r="A1" s="55"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="26" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50" t="s">
+      <c r="F3" s="47"/>
+      <c r="G3" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="26" customHeight="1">
-      <c r="A4" s="51">
+      <c r="A4" s="48">
         <v>0.2</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="49">
         <v>420</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="49">
         <v>2100</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="49">
         <v>2079</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="49">
         <v>2127</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52">
+      <c r="F4" s="49"/>
+      <c r="G4" s="49">
         <v>5.31</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="49">
         <v>5.58</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52">
+      <c r="I4" s="49"/>
+      <c r="J4" s="49">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="26" customHeight="1">
-      <c r="A5" s="53">
+      <c r="A5" s="50">
         <v>0.4</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="51">
         <v>840</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="51">
         <v>4200</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="51">
         <v>4190</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="51">
         <v>4208</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54">
+      <c r="F5" s="51"/>
+      <c r="G5" s="51">
         <v>12.06</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="51">
         <v>12.98</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54">
+      <c r="I5" s="51"/>
+      <c r="J5" s="51">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="26" customHeight="1">
-      <c r="A6" s="53">
+      <c r="A6" s="50">
         <v>0.6</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="52">
         <v>1260</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="52">
         <v>6300</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="52">
         <v>6282</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="52">
         <v>6314</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55">
+      <c r="F6" s="52"/>
+      <c r="G6" s="52">
         <v>24.41</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="52">
         <v>24.83</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55">
+      <c r="I6" s="52"/>
+      <c r="J6" s="52">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="26" customHeight="1">
-      <c r="A7" s="53">
+      <c r="A7" s="50">
         <v>0.8</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="51">
         <v>1680</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="51">
         <v>8400</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="51">
         <v>8380</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="51">
         <v>8412</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54">
+      <c r="F7" s="51"/>
+      <c r="G7" s="51">
         <v>41.47</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="51">
         <v>42.5</v>
       </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54">
+      <c r="I7" s="51"/>
+      <c r="J7" s="51">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="26" customHeight="1">
-      <c r="A8" s="56">
+      <c r="A8" s="53">
         <v>1</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="54">
         <v>2100</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="54">
         <v>10500</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="54">
         <v>10478</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="54">
         <v>10687</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57">
+      <c r="F8" s="54"/>
+      <c r="G8" s="54">
         <v>62.1</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="54">
         <v>66.7</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57">
+      <c r="I8" s="54"/>
+      <c r="J8" s="54">
         <v>175</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8650,8 +8845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8649D6B4-D939-40CC-8A2E-31528E2EDE86}">
   <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8664,189 +8859,189 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="96.4" customHeight="1">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="93" t="s">
         <v>368</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
     </row>
     <row r="3" spans="1:6" ht="15.4" thickBot="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="26.45" customHeight="1" thickBot="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="47" t="s">
         <v>354</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="77" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="129" customHeight="1" thickBot="1">
-      <c r="A5" s="45">
+      <c r="A5" s="42">
         <v>1</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="49" t="s">
         <v>355</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="49">
         <v>21</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="49">
         <v>1</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="49" t="s">
         <v>356</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="82" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="129.75" customHeight="1" thickBot="1">
-      <c r="A6" s="43">
+      <c r="A6" s="40">
         <v>2</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="51" t="s">
         <v>366</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="51">
         <v>9600</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="51">
         <v>2</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="51" t="s">
         <v>367</v>
       </c>
-      <c r="F6" s="81"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="147.4" customHeight="1" thickBot="1">
-      <c r="A7" s="45">
+      <c r="A7" s="42">
         <v>3</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="51" t="s">
         <v>357</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="51">
         <v>5</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="51">
         <v>3</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="F7" s="81"/>
+      <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="146.65" customHeight="1" thickBot="1">
-      <c r="A8" s="43">
+      <c r="A8" s="40">
         <v>4</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="52" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="52">
         <v>4</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="F8" s="81"/>
+      <c r="F8" s="78"/>
     </row>
     <row r="9" spans="1:6" ht="159.75" customHeight="1" thickBot="1">
-      <c r="A9" s="45">
+      <c r="A9" s="42">
         <v>5</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="81" t="s">
         <v>361</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="81">
         <v>0</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="81">
         <v>5</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="81" t="s">
         <v>362</v>
       </c>
-      <c r="F9" s="81"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" thickBot="1">
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="75"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" thickBot="1">
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="78"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="75"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" thickBot="1">
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="78"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="75"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" thickBot="1">
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="78"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="75"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" thickBot="1">
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="78"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="75"/>
     </row>
     <row r="15" spans="1:6" ht="19.5" thickBot="1">
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="78"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="75"/>
     </row>
     <row r="16" spans="1:6" ht="19.5" thickBot="1">
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="78"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:F2"/>
   </mergeCells>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/测试文档/逆流器显示板软件自测报告—V1.0.xlsx
+++ b/测试文档/逆流器显示板软件自测报告—V1.0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8357CD15-1F64-44B6-83E0-FB09B10CA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF96D46-B01B-438F-AE61-A6CA2B199712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表① 测试报告" sheetId="7" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="表③故障对应表" sheetId="17" r:id="rId3"/>
     <sheet name="表④转速升降耗时" sheetId="11" r:id="rId4"/>
     <sheet name="表⑤各档位下的参数测量" sheetId="13" r:id="rId5"/>
-    <sheet name="表⑥设置菜单介绍" sheetId="18" r:id="rId6"/>
+    <sheet name="转速功率" sheetId="19" r:id="rId6"/>
+    <sheet name="表⑥设置菜单介绍" sheetId="18" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'表① 测试报告'!$1:$8</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="395">
   <si>
     <t xml:space="preserve">                            </t>
   </si>
@@ -1691,29 +1692,13 @@
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>MOS管高温降速恢复
-(低于80°C开始恢复)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>屏幕中速度显示区域交替显示速度和减速标志(A1);
 前2分钟降速 10%; 往后每2分钟再降速 5%,直至温度正常;(降速最低降至20%,此时依旧会交替显示A1,但速度不会再低于20%)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>屏幕中速度显示区域交替显示速度和降速恢复标志(A0);
-与降速频率相反,最后2分钟提速 10%; 前面每2分钟再提速 5%,直至恢复原来速度;
-恢复速度后退出降速模式,屏幕不再交替显示(A0);</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>机箱高温降速
 (高于70°C,低于90°C开始降速)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机箱高温降速恢复
-(低于70°C开始恢复)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2331,10 +2316,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>设置电机极数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>参数</t>
   </si>
   <si>
@@ -2353,16 +2334,7 @@
     <t>1~254</t>
   </si>
   <si>
-    <t>电机级数</t>
-  </si>
-  <si>
-    <t>1~8</t>
-  </si>
-  <si>
     <t>显示板软件版本</t>
-  </si>
-  <si>
-    <t>不可修改</t>
   </si>
   <si>
     <t>屏蔽外部控制方式</t>
@@ -2409,58 +2381,6 @@
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">保存退出后系统进入开机--&gt;自由模式初始状态;
-电机极数与转速控制相关,通过CN2串口监听显示板下发转速控制指令时的转速值是否符合电机极数, 下发转速 = 百分比 *2100* 极数;百分比为屏幕显示的百分比,如  默认 40% *2100*5 = 4200转;
-指令:  02 05 08 00 00 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">10 68 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14993743705557422"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>EC F0 03 
-极数改为4后,40% *2100*4 = 3360 转;
-指令为:02 05 08 00 00</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 0D 20 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14993743705557422"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">50 13 03 </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>设置菜单测试
 (具体操作和显示可查看表⑥【设置菜单介绍】)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2509,13 +2429,6 @@
   </si>
   <si>
     <t>1.关机状态下,连续按[定时键]8次,进入设置菜单;
-2.按[模式键]切换至菜单 3;
-3.[档位键]+,[定时键]-；可更改极数，范围：1-8；
-4.将极数改为4，点击[电源键]退出并保存;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.关机状态下,连续按[定时键]8次,进入设置菜单;
 2.按[模式键]切换至菜单 1;
 3.[档位键]+,[定时键]-，范围：1-254,长按可快速调节；
 4.可随意更改至任意值，点击[电源键]退出并保存;</t>
@@ -2539,6 +2452,88 @@
   <si>
     <t>当前版本 V00.01</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复原来速度;
+恢复速度后退出降速模式,屏幕不再交替显示(A1);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复原来速度;
+恢复速度后退出降速模式,屏幕不再交替显示(A2);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机箱高温降速恢复
+(低于65°C开始恢复)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOS管高温降速恢复
+(低于75°C开始恢复)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可修改</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱动板软件版本</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号
+V xx.xx
+如 v 1.0显示如图</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>功率</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>转速</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前档位</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200w，按转速算</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200w，按功率算</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>280w</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>505w</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>740w</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>970w</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>1210w</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2914,7 +2909,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3013,6 +3008,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3345,7 +3352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3588,6 +3595,15 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3653,64 +3669,7 @@
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" customBuiltin="1"/>
     <cellStyle name="注释" xfId="27" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="270">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF92D050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <gradientFill degree="270">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF5353"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <u val="none"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="270">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B0F0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <b val="0"/>
@@ -4197,16 +4156,16 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="2" defaultPivotStyle="PivotStyleLight18">
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="通讯簿" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="32"/>
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="firstRowStripe" dxfId="30"/>
-      <tableStyleElement type="secondRowStripe" dxfId="29"/>
+      <tableStyleElement type="wholeTable" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="firstRowStripe" dxfId="26"/>
+      <tableStyleElement type="secondRowStripe" dxfId="25"/>
     </tableStyle>
     <tableStyle name="待办事项列表" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="28"/>
-      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4746,56 +4705,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>110173</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1484630</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8F8CBF-AA30-6591-F931-DC7CD2D3D17C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7101523" y="5986463"/>
-          <a:ext cx="1504315" cy="1484630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
       <xdr:colOff>96838</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4820,7 +4729,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4846,22 +4755,72 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>72073</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1567180</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1604328</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1514158</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15">
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08318DDD-19BA-831E-3C9A-9544DF1CDFE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52368198-B146-1498-C806-4E6EFB937269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7091363" y="5233988"/>
+          <a:ext cx="1504315" cy="1509395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1595437</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1510030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ADC7844-73AE-990D-EBF9-E80D7ECFEB06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4877,18 +4836,23 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7063423" y="9720263"/>
-          <a:ext cx="1542415" cy="1567180"/>
+          <a:off x="7100887" y="8982075"/>
+          <a:ext cx="1485900" cy="1490980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4897,17 +4861,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="待办事项列表" displayName="待办事项列表" ref="B8:I135" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24">
-  <autoFilter ref="B8:I135" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="待办事项列表" displayName="待办事项列表" ref="B8:I134" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
+  <autoFilter ref="B8:I134" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="结果" totalsRowLabel="汇总" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="测试项目" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{47CD10E8-EAF9-4A58-8FD6-6646992E1985}" name="细分项目" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{EC739987-E43B-479C-AAF5-2EA4AD7C61F1}" name="操作" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{7BE2E3AA-4F35-4616-9A62-E65B3DBEF4A1}" name="预期结果" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{57920DAF-0AE4-4D3F-8BC5-77A72FAA5501}" name="实际结果" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{838E3703-D4B2-4723-BD9B-48A013CFCD81}" name="备注" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="日期" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="结果" totalsRowLabel="汇总" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="测试项目" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{47CD10E8-EAF9-4A58-8FD6-6646992E1985}" name="细分项目" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{EC739987-E43B-479C-AAF5-2EA4AD7C61F1}" name="操作" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{7BE2E3AA-4F35-4616-9A62-E65B3DBEF4A1}" name="预期结果" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{57920DAF-0AE4-4D3F-8BC5-77A72FAA5501}" name="实际结果" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{838E3703-D4B2-4723-BD9B-48A013CFCD81}" name="备注" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="日期" dataDxfId="5" totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="通讯簿" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5149,10 +5113,10 @@
     <tabColor theme="7" tint="0.59999389629810485"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:XFB140"/>
+  <dimension ref="A1:XFB139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView showGridLines="0" topLeftCell="B47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15"/>
@@ -5254,7 +5218,7 @@
       </c>
       <c r="C5" s="32">
         <f>COUNTIFS(待办事项列表[结果],"=2")</f>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -5277,10 +5241,10 @@
     </row>
     <row r="7" spans="1:18" ht="26.65">
       <c r="B7" s="18" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="27"/>
@@ -5321,7 +5285,7 @@
       <c r="R8" s="13"/>
     </row>
     <row r="9" spans="1:18" ht="30">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="86" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="20">
@@ -5334,7 +5298,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>19</v>
@@ -5348,7 +5312,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="45">
-      <c r="A10" s="83"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="20">
         <v>2</v>
       </c>
@@ -5359,7 +5323,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>21</v>
@@ -5373,7 +5337,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="30">
-      <c r="A11" s="83"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="20">
         <v>2</v>
       </c>
@@ -5381,7 +5345,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>25</v>
@@ -5956,39 +5920,39 @@
         <v>228</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G36" s="19" t="s">
         <v>15</v>
       </c>
       <c r="H36" s="23"/>
       <c r="I36" s="15">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="60">
+        <v>45503</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="45">
       <c r="B37" s="21">
         <v>2</v>
       </c>
       <c r="C37" s="35"/>
       <c r="D37" s="24" t="s">
-        <v>242</v>
+        <v>379</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>244</v>
+        <v>376</v>
       </c>
       <c r="G37" s="19" t="s">
         <v>15</v>
       </c>
       <c r="H37" s="23"/>
       <c r="I37" s="15">
-        <v>45499</v>
+        <v>45503</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="45">
@@ -5997,42 +5961,42 @@
       </c>
       <c r="C38" s="35"/>
       <c r="D38" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="E38" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="E38" s="19" t="s">
-        <v>248</v>
-      </c>
       <c r="F38" s="23" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G38" s="19" t="s">
         <v>15</v>
       </c>
       <c r="H38" s="23"/>
       <c r="I38" s="15">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="60">
+        <v>45503</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="45">
       <c r="B39" s="21">
         <v>2</v>
       </c>
       <c r="C39" s="35"/>
       <c r="D39" s="24" t="s">
-        <v>246</v>
+        <v>378</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>244</v>
+        <v>377</v>
       </c>
       <c r="G39" s="19" t="s">
         <v>15</v>
       </c>
       <c r="H39" s="23"/>
       <c r="I39" s="15">
-        <v>45499</v>
+        <v>45503</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="45">
@@ -6040,16 +6004,16 @@
         <v>2</v>
       </c>
       <c r="C40" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="F40" s="23" t="s">
         <v>253</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>256</v>
       </c>
       <c r="G40" s="19" t="s">
         <v>15</v>
@@ -6065,13 +6029,13 @@
       </c>
       <c r="C41" s="35"/>
       <c r="D41" s="24" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G41" s="19" t="s">
         <v>15</v>
@@ -6087,13 +6051,13 @@
       </c>
       <c r="C42" s="35"/>
       <c r="D42" s="24" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G42" s="19" t="s">
         <v>15</v>
@@ -6109,13 +6073,13 @@
       </c>
       <c r="C43" s="35"/>
       <c r="D43" s="24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G43" s="19" t="s">
         <v>15</v>
@@ -6131,13 +6095,13 @@
       </c>
       <c r="C44" s="35"/>
       <c r="D44" s="24" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G44" s="19" t="s">
         <v>15</v>
@@ -6153,13 +6117,13 @@
       </c>
       <c r="C45" s="36"/>
       <c r="D45" s="24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G45" s="19" t="s">
         <v>15</v>
@@ -6174,16 +6138,16 @@
         <v>2</v>
       </c>
       <c r="C46" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="D46" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="D46" s="24" t="s">
-        <v>275</v>
-      </c>
       <c r="E46" s="19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G46" s="19" t="s">
         <v>15</v>
@@ -6199,13 +6163,13 @@
       </c>
       <c r="C47" s="36"/>
       <c r="D47" s="24" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G47" s="19" t="s">
         <v>15</v>
@@ -6221,13 +6185,13 @@
       </c>
       <c r="C48" s="36"/>
       <c r="D48" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="E48" s="19" t="s">
-        <v>281</v>
-      </c>
       <c r="F48" s="23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G48" s="19" t="s">
         <v>15</v>
@@ -6243,13 +6207,13 @@
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="E49" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="E49" s="19" t="s">
-        <v>283</v>
-      </c>
       <c r="F49" s="23" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G49" s="19" t="s">
         <v>15</v>
@@ -6265,13 +6229,13 @@
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="28" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G50" s="19" t="s">
         <v>15</v>
@@ -6287,13 +6251,13 @@
       </c>
       <c r="C51" s="36"/>
       <c r="D51" s="28" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G51" s="19" t="s">
         <v>15</v>
@@ -6308,16 +6272,16 @@
         <v>2</v>
       </c>
       <c r="C52" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="F52" s="28" t="s">
         <v>291</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>294</v>
       </c>
       <c r="G52" s="19" t="s">
         <v>15</v>
@@ -6333,13 +6297,13 @@
       </c>
       <c r="C53" s="36"/>
       <c r="D53" s="28" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G53" s="19" t="s">
         <v>15</v>
@@ -6355,13 +6319,13 @@
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="28" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G54" s="19" t="s">
         <v>15</v>
@@ -6376,16 +6340,16 @@
         <v>2</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G55" s="19" t="s">
         <v>15</v>
@@ -6401,13 +6365,13 @@
       </c>
       <c r="C56" s="36"/>
       <c r="D56" s="28" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G56" s="19" t="s">
         <v>15</v>
@@ -6423,13 +6387,13 @@
       </c>
       <c r="C57" s="36"/>
       <c r="D57" s="28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G57" s="19" t="s">
         <v>15</v>
@@ -6445,13 +6409,13 @@
       </c>
       <c r="C58" s="36"/>
       <c r="D58" s="28" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G58" s="19" t="s">
         <v>15</v>
@@ -6466,16 +6430,16 @@
         <v>2</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F59" s="28" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G59" s="19" t="s">
         <v>15</v>
@@ -6491,13 +6455,13 @@
       </c>
       <c r="C60" s="36"/>
       <c r="D60" s="28" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E60" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="F60" s="28" t="s">
         <v>334</v>
-      </c>
-      <c r="F60" s="28" t="s">
-        <v>337</v>
       </c>
       <c r="G60" s="19" t="s">
         <v>15</v>
@@ -6513,13 +6477,13 @@
       </c>
       <c r="C61" s="36"/>
       <c r="D61" s="28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G61" s="19" t="s">
         <v>15</v>
@@ -6535,13 +6499,13 @@
       </c>
       <c r="C62" s="36"/>
       <c r="D62" s="28" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F62" s="28" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G62" s="19" t="s">
         <v>15</v>
@@ -6556,16 +6520,16 @@
         <v>2</v>
       </c>
       <c r="C63" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="F63" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="F63" s="28" t="s">
-        <v>343</v>
       </c>
       <c r="G63" s="19" t="s">
         <v>15</v>
@@ -6580,16 +6544,16 @@
         <v>2</v>
       </c>
       <c r="C64" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="F64" s="28" t="s">
         <v>346</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="E64" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="F64" s="28" t="s">
-        <v>349</v>
       </c>
       <c r="G64" s="19" t="s">
         <v>15</v>
@@ -6599,21 +6563,21 @@
         <v>45499</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="106.5">
+    <row r="65" spans="2:9" ht="45">
       <c r="B65" s="30">
         <v>2</v>
       </c>
       <c r="C65" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="E65" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="D65" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="E65" s="28" t="s">
-        <v>379</v>
-      </c>
       <c r="F65" s="28" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="G65" s="19" t="s">
         <v>15</v>
@@ -6623,19 +6587,19 @@
         <v>45499</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="30">
+    <row r="66" spans="2:9" ht="60">
       <c r="B66" s="30">
         <v>2</v>
       </c>
       <c r="C66" s="36"/>
       <c r="D66" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E66" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="E66" s="28" t="s">
-        <v>378</v>
-      </c>
       <c r="F66" s="28" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="G66" s="19" t="s">
         <v>15</v>
@@ -6645,19 +6609,19 @@
         <v>45499</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="60">
+    <row r="67" spans="2:9" ht="75">
       <c r="B67" s="30">
         <v>2</v>
       </c>
       <c r="C67" s="36"/>
       <c r="D67" s="28" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="F67" s="28" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G67" s="19" t="s">
         <v>15</v>
@@ -6667,19 +6631,19 @@
         <v>45499</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="75">
+    <row r="68" spans="2:9" ht="60">
       <c r="B68" s="30">
         <v>2</v>
       </c>
       <c r="C68" s="36"/>
       <c r="D68" s="28" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F68" s="28" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G68" s="19" t="s">
         <v>15</v>
@@ -6689,27 +6653,15 @@
         <v>45499</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="60">
-      <c r="B69" s="30">
-        <v>2</v>
-      </c>
+    <row r="69" spans="2:9">
+      <c r="B69" s="30"/>
       <c r="C69" s="36"/>
-      <c r="D69" s="28" t="s">
-        <v>376</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="F69" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
       <c r="H69" s="28"/>
-      <c r="I69" s="15">
-        <v>45499</v>
-      </c>
+      <c r="I69" s="29"/>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="30"/>
@@ -7361,51 +7313,27 @@
       <c r="H134" s="28"/>
       <c r="I134" s="29"/>
     </row>
-    <row r="135" spans="2:9">
-      <c r="B135" s="30"/>
-      <c r="C135" s="36"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="28"/>
-      <c r="G135" s="28"/>
-      <c r="H135" s="28"/>
-      <c r="I135" s="29"/>
-    </row>
-    <row r="140" spans="2:9">
-      <c r="B140" s="6"/>
-      <c r="E140" s="6"/>
+    <row r="139" spans="2:9">
+      <c r="B139" s="6"/>
+      <c r="E139" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A9:A11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C9:I135">
-    <cfRule type="expression" dxfId="7" priority="5">
+  <conditionalFormatting sqref="C9:I134">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$B9=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="41">
+    <cfRule type="expression" dxfId="2" priority="41">
       <formula>$B9=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="42">
+    <cfRule type="expression" dxfId="1" priority="42">
       <formula>$B9=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="46">
+    <cfRule type="expression" dxfId="0" priority="46">
       <formula>$B9=2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D135">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$B47=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$B47=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$B47=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$B47=2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
@@ -7451,7 +7379,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B141:B219 B9:B139</xm:sqref>
+          <xm:sqref>B140:B218 B9:B138</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7464,7 +7392,7 @@
   <dimension ref="A2:F41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7618,12 +7546,12 @@
       <c r="A12" s="71">
         <v>9</v>
       </c>
-      <c r="B12" s="84" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
+      <c r="B12" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
     </row>
     <row r="13" spans="1:5" ht="105">
       <c r="A13" s="71">
@@ -7633,7 +7561,7 @@
         <v>156</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D13" s="68" t="s">
         <v>220</v>
@@ -7724,12 +7652,12 @@
       <c r="A20" s="71">
         <v>17</v>
       </c>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
     </row>
     <row r="21" spans="1:5" ht="93">
       <c r="A21" s="71">
@@ -7822,10 +7750,10 @@
       </c>
       <c r="B30" s="43"/>
       <c r="C30" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="D30" s="43" t="s">
         <v>306</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75">
@@ -7834,10 +7762,10 @@
       </c>
       <c r="B31" s="38"/>
       <c r="C31" s="43" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75">
@@ -7846,10 +7774,10 @@
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="43" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75">
@@ -7858,10 +7786,10 @@
       </c>
       <c r="B33" s="43"/>
       <c r="C33" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="D33" s="43" t="s">
         <v>310</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75">
@@ -7870,10 +7798,10 @@
       </c>
       <c r="B34" s="38"/>
       <c r="C34" s="43" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F34" s="17"/>
     </row>
@@ -7883,10 +7811,10 @@
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="43" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F35" s="59"/>
     </row>
@@ -7896,10 +7824,10 @@
       </c>
       <c r="B36" s="43"/>
       <c r="C36" s="43" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F36" s="59"/>
     </row>
@@ -7909,10 +7837,10 @@
       </c>
       <c r="B37" s="38"/>
       <c r="C37" s="43" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F37" s="59"/>
     </row>
@@ -7964,8 +7892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62917C4E-B4EC-4168-8A12-78BA8F0FC0D3}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8017,10 +7945,10 @@
       <c r="B4" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="95" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="95" t="s">
         <v>188</v>
       </c>
     </row>
@@ -8031,8 +7959,8 @@
       <c r="B5" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
     </row>
     <row r="6" spans="1:4" ht="31.05" customHeight="1">
       <c r="A6" s="60" t="s">
@@ -8069,10 +7997,10 @@
       <c r="B8" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="95" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="95" t="s">
         <v>190</v>
       </c>
     </row>
@@ -8083,8 +8011,8 @@
       <c r="B9" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
     </row>
     <row r="10" spans="1:4" ht="31.05" customHeight="1">
       <c r="A10" s="60" t="s">
@@ -8093,8 +8021,8 @@
       <c r="B10" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
     </row>
     <row r="11" spans="1:4" ht="46.05" customHeight="1">
       <c r="A11" s="60" t="s">
@@ -8103,10 +8031,10 @@
       <c r="B11" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="90" t="s">
         <v>191</v>
       </c>
     </row>
@@ -8117,8 +8045,8 @@
       <c r="B12" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
     </row>
     <row r="13" spans="1:4" ht="46.05" customHeight="1">
       <c r="A13" s="60" t="s">
@@ -8127,8 +8055,8 @@
       <c r="B13" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
     </row>
     <row r="14" spans="1:4" ht="31.05" customHeight="1">
       <c r="A14" s="60" t="s">
@@ -8137,48 +8065,48 @@
       <c r="B14" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
     </row>
     <row r="15" spans="1:4" ht="31.05" customHeight="1">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="88" t="s">
         <v>182</v>
       </c>
       <c r="B15" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="90" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="86"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
     </row>
     <row r="17" spans="1:4" ht="15.75">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="94" t="s">
         <v>206</v>
       </c>
       <c r="B17" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
     </row>
     <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="91"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="67" t="s">
@@ -8231,7 +8159,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8638,10 +8566,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606A706E-519E-4EE0-A475-F5EA687DDF74}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8835,6 +8763,39 @@
         <v>175</v>
       </c>
     </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="83"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="83"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="83"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="83"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="83"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="83"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="83"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="83"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="83"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="83"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="83"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8842,11 +8803,352 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6365ED1-515D-4A9C-9DCB-0CC7A908F0F9}">
+  <dimension ref="A4:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="12.41015625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:12" ht="30">
+      <c r="A4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" t="s">
+        <v>387</v>
+      </c>
+      <c r="I4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G5" t="s">
+        <v>385</v>
+      </c>
+      <c r="I5" t="s">
+        <v>383</v>
+      </c>
+      <c r="J5" t="s">
+        <v>384</v>
+      </c>
+      <c r="K5" t="s">
+        <v>385</v>
+      </c>
+      <c r="L5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="C6" s="83"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>1500</v>
+      </c>
+      <c r="B7">
+        <v>2100</v>
+      </c>
+      <c r="C7" s="83">
+        <v>1</v>
+      </c>
+      <c r="E7" s="85">
+        <v>1200</v>
+      </c>
+      <c r="F7">
+        <v>1960</v>
+      </c>
+      <c r="G7" s="83">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1200</v>
+      </c>
+      <c r="J7" s="84">
+        <v>1960</v>
+      </c>
+      <c r="K7" s="83">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>1100</v>
+      </c>
+      <c r="B8">
+        <v>1890</v>
+      </c>
+      <c r="C8" s="83">
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="85">
+        <v>874</v>
+      </c>
+      <c r="F8">
+        <v>1764</v>
+      </c>
+      <c r="G8" s="83">
+        <v>0.9</v>
+      </c>
+      <c r="I8">
+        <v>1080</v>
+      </c>
+      <c r="J8" s="84">
+        <v>1892</v>
+      </c>
+      <c r="K8" s="83">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>785</v>
+      </c>
+      <c r="B9">
+        <v>1680</v>
+      </c>
+      <c r="C9" s="83">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="85">
+        <v>614</v>
+      </c>
+      <c r="F9">
+        <v>1568</v>
+      </c>
+      <c r="G9" s="83">
+        <v>0.8</v>
+      </c>
+      <c r="I9">
+        <v>960</v>
+      </c>
+      <c r="J9" s="84">
+        <v>1819</v>
+      </c>
+      <c r="K9" s="83">
+        <v>0.8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>540</v>
+      </c>
+      <c r="B10">
+        <v>1470</v>
+      </c>
+      <c r="C10" s="83">
+        <v>0.7</v>
+      </c>
+      <c r="E10" s="85">
+        <v>411</v>
+      </c>
+      <c r="F10">
+        <v>1372</v>
+      </c>
+      <c r="G10" s="83">
+        <v>0.7</v>
+      </c>
+      <c r="I10">
+        <v>840</v>
+      </c>
+      <c r="J10" s="84">
+        <v>1740</v>
+      </c>
+      <c r="K10" s="83">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>362</v>
+      </c>
+      <c r="B11">
+        <v>1260</v>
+      </c>
+      <c r="C11" s="83">
+        <v>0.6</v>
+      </c>
+      <c r="E11" s="85">
+        <v>259</v>
+      </c>
+      <c r="F11">
+        <v>1176</v>
+      </c>
+      <c r="G11" s="83">
+        <v>0.6</v>
+      </c>
+      <c r="I11">
+        <v>720</v>
+      </c>
+      <c r="J11" s="84">
+        <v>1653</v>
+      </c>
+      <c r="K11" s="83">
+        <v>0.6</v>
+      </c>
+      <c r="L11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>236</v>
+      </c>
+      <c r="B12">
+        <v>1050</v>
+      </c>
+      <c r="C12" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="85">
+        <v>120</v>
+      </c>
+      <c r="F12">
+        <v>980</v>
+      </c>
+      <c r="G12" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <v>600</v>
+      </c>
+      <c r="J12" s="84">
+        <v>1555</v>
+      </c>
+      <c r="K12" s="83">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>146</v>
+      </c>
+      <c r="B13">
+        <v>840</v>
+      </c>
+      <c r="C13" s="83">
+        <v>0.4</v>
+      </c>
+      <c r="E13" s="85">
+        <v>76.8</v>
+      </c>
+      <c r="F13">
+        <v>784</v>
+      </c>
+      <c r="G13" s="83">
+        <v>0.4</v>
+      </c>
+      <c r="I13">
+        <v>480</v>
+      </c>
+      <c r="J13" s="84">
+        <v>1444</v>
+      </c>
+      <c r="K13" s="83">
+        <v>0.4</v>
+      </c>
+      <c r="L13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <v>630</v>
+      </c>
+      <c r="C14" s="83">
+        <v>0.3</v>
+      </c>
+      <c r="E14" s="85">
+        <v>32.4</v>
+      </c>
+      <c r="F14">
+        <v>588</v>
+      </c>
+      <c r="G14" s="83">
+        <v>0.3</v>
+      </c>
+      <c r="I14">
+        <v>360</v>
+      </c>
+      <c r="J14" s="84">
+        <v>1312</v>
+      </c>
+      <c r="K14" s="83">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <v>420</v>
+      </c>
+      <c r="C15" s="83">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="85">
+        <v>9.6</v>
+      </c>
+      <c r="F15">
+        <v>392</v>
+      </c>
+      <c r="G15" s="83">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>240</v>
+      </c>
+      <c r="J15" s="84">
+        <v>1146</v>
+      </c>
+      <c r="K15" s="83">
+        <v>0.2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="34" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8649D6B4-D939-40CC-8A2E-31528E2EDE86}">
   <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8859,14 +9161,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="96.4" customHeight="1">
-      <c r="A2" s="93" t="s">
-        <v>368</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
+      <c r="A2" s="96" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
     </row>
     <row r="3" spans="1:6" ht="15.4" thickBot="1">
       <c r="A3" s="17"/>
@@ -8881,19 +9183,19 @@
         <v>219</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F4" s="77" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="129" customHeight="1" thickBot="1">
@@ -8901,7 +9203,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C5" s="49">
         <v>21</v>
@@ -8910,10 +9212,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F5" s="82" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="129.75" customHeight="1" thickBot="1">
@@ -8921,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C6" s="51">
         <v>9600</v>
@@ -8930,7 +9232,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F6" s="78"/>
     </row>
@@ -8938,17 +9240,17 @@
       <c r="A7" s="42">
         <v>3</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>357</v>
-      </c>
-      <c r="C7" s="51">
-        <v>5</v>
-      </c>
-      <c r="D7" s="51">
+      <c r="B7" s="81" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" s="81">
+        <v>0</v>
+      </c>
+      <c r="D7" s="81">
         <v>3</v>
       </c>
-      <c r="E7" s="51" t="s">
-        <v>358</v>
+      <c r="E7" s="81" t="s">
+        <v>355</v>
       </c>
       <c r="F7" s="78"/>
     </row>
@@ -8957,16 +9259,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="D8" s="52">
         <v>4</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F8" s="78"/>
     </row>
@@ -8975,16 +9277,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="81" t="s">
-        <v>361</v>
-      </c>
-      <c r="C9" s="81">
-        <v>0</v>
+        <v>381</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>380</v>
       </c>
       <c r="D9" s="81">
         <v>5</v>
       </c>
       <c r="E9" s="81" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="F9" s="78"/>
     </row>
@@ -9256,21 +9558,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9294,6 +9596,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{920DC3BD-3C4B-4C78-91FF-63EB10F70D2C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03CCC4C8-6A95-4999-B963-115A022CA31F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9301,12 +9611,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{920DC3BD-3C4B-4C78-91FF-63EB10F70D2C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>